--- a/ImidPilot/csv_files/FoodConsumpImidPil.xlsx
+++ b/ImidPilot/csv_files/FoodConsumpImidPil.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
-  <workbookPr date1904="1" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
+  <workbookPr date1904="1" autoCompressPictures="0" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samanthaalger/AlgerProjects/ImidPilot/csv_files/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528E7BD1-7BF2-5441-9F8D-E4BDDB31E1B6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="800" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="100" yWindow="460" windowWidth="25600" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FoodConsumpImidPil" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="11">
   <si>
     <t>Treatment</t>
   </si>
@@ -53,11 +59,14 @@
   <si>
     <t>sample_name</t>
   </si>
+  <si>
+    <t>0.1.1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -625,7 +634,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="ImidLabData"/>
@@ -2070,6 +2079,366 @@
           </cell>
           <cell r="F72" t="str">
             <v>I-14</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73" t="str">
+            <v>10.1</v>
+          </cell>
+          <cell r="B73">
+            <v>10</v>
+          </cell>
+          <cell r="C73">
+            <v>9.1950000000000003</v>
+          </cell>
+          <cell r="D73">
+            <v>41779</v>
+          </cell>
+          <cell r="E73">
+            <v>6</v>
+          </cell>
+          <cell r="F73" t="str">
+            <v>I-72</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74" t="str">
+            <v>10.2</v>
+          </cell>
+          <cell r="B74">
+            <v>10</v>
+          </cell>
+          <cell r="C74">
+            <v>14.545</v>
+          </cell>
+          <cell r="D74">
+            <v>41779</v>
+          </cell>
+          <cell r="E74">
+            <v>6</v>
+          </cell>
+          <cell r="F74" t="str">
+            <v>I-73</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75" t="str">
+            <v>10.3</v>
+          </cell>
+          <cell r="B75">
+            <v>10</v>
+          </cell>
+          <cell r="C75">
+            <v>8.5845000000000002</v>
+          </cell>
+          <cell r="D75">
+            <v>41779</v>
+          </cell>
+          <cell r="E75">
+            <v>6</v>
+          </cell>
+          <cell r="F75" t="str">
+            <v>I-74</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76" t="str">
+            <v>10.4</v>
+          </cell>
+          <cell r="B76">
+            <v>10</v>
+          </cell>
+          <cell r="C76">
+            <v>11.276</v>
+          </cell>
+          <cell r="D76">
+            <v>41779</v>
+          </cell>
+          <cell r="E76">
+            <v>6</v>
+          </cell>
+          <cell r="F76" t="str">
+            <v>I-75</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77" t="str">
+            <v>10.5</v>
+          </cell>
+          <cell r="B77">
+            <v>10</v>
+          </cell>
+          <cell r="C77">
+            <v>7.976</v>
+          </cell>
+          <cell r="D77">
+            <v>41779</v>
+          </cell>
+          <cell r="E77">
+            <v>6</v>
+          </cell>
+          <cell r="F77" t="str">
+            <v>I-76</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78" t="str">
+            <v>10.6</v>
+          </cell>
+          <cell r="B78">
+            <v>10</v>
+          </cell>
+          <cell r="C78">
+            <v>14.916</v>
+          </cell>
+          <cell r="D78">
+            <v>41779</v>
+          </cell>
+          <cell r="E78">
+            <v>6</v>
+          </cell>
+          <cell r="F78" t="str">
+            <v>I-77</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79" t="str">
+            <v>10.7</v>
+          </cell>
+          <cell r="B79">
+            <v>10</v>
+          </cell>
+          <cell r="C79">
+            <v>19.628</v>
+          </cell>
+          <cell r="D79">
+            <v>41779</v>
+          </cell>
+          <cell r="E79">
+            <v>6</v>
+          </cell>
+          <cell r="F79" t="str">
+            <v>I-78</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80" t="str">
+            <v>10.8</v>
+          </cell>
+          <cell r="B80">
+            <v>10</v>
+          </cell>
+          <cell r="C80">
+            <v>13.615</v>
+          </cell>
+          <cell r="D80">
+            <v>41779</v>
+          </cell>
+          <cell r="E80" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="F80" t="str">
+            <v>I-79</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81" t="str">
+            <v>10.9</v>
+          </cell>
+          <cell r="B81">
+            <v>10</v>
+          </cell>
+          <cell r="C81">
+            <v>13.826000000000001</v>
+          </cell>
+          <cell r="D81">
+            <v>41779</v>
+          </cell>
+          <cell r="E81" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="F81" t="str">
+            <v>I-80</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82" t="str">
+            <v>10.10</v>
+          </cell>
+          <cell r="B82">
+            <v>10</v>
+          </cell>
+          <cell r="C82">
+            <v>9.7439999999999998</v>
+          </cell>
+          <cell r="D82">
+            <v>41779</v>
+          </cell>
+          <cell r="E82" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="F82" t="str">
+            <v>I-81</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83" t="str">
+            <v>10.11</v>
+          </cell>
+          <cell r="B83">
+            <v>10</v>
+          </cell>
+          <cell r="C83">
+            <v>11.329000000000001</v>
+          </cell>
+          <cell r="D83">
+            <v>41779</v>
+          </cell>
+          <cell r="E83" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="F83" t="str">
+            <v>I-82</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84" t="str">
+            <v>10.12</v>
+          </cell>
+          <cell r="B84">
+            <v>10</v>
+          </cell>
+          <cell r="C84">
+            <v>14.504</v>
+          </cell>
+          <cell r="D84">
+            <v>41779</v>
+          </cell>
+          <cell r="E84" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="F84" t="str">
+            <v>I-83</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85" t="str">
+            <v>10.13</v>
+          </cell>
+          <cell r="B85">
+            <v>10</v>
+          </cell>
+          <cell r="C85">
+            <v>9.2825000000000006</v>
+          </cell>
+          <cell r="D85">
+            <v>41779</v>
+          </cell>
+          <cell r="E85" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="F85" t="str">
+            <v>I-84</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86" t="str">
+            <v>10.14</v>
+          </cell>
+          <cell r="B86">
+            <v>10</v>
+          </cell>
+          <cell r="C86">
+            <v>10.753</v>
+          </cell>
+          <cell r="D86">
+            <v>41779</v>
+          </cell>
+          <cell r="E86" t="str">
+            <v>8</v>
+          </cell>
+          <cell r="F86" t="str">
+            <v>I-85</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87" t="str">
+            <v>10.15</v>
+          </cell>
+          <cell r="B87">
+            <v>10</v>
+          </cell>
+          <cell r="C87">
+            <v>11.9695</v>
+          </cell>
+          <cell r="D87">
+            <v>41779</v>
+          </cell>
+          <cell r="E87" t="str">
+            <v>8</v>
+          </cell>
+          <cell r="F87" t="str">
+            <v>I-86</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88" t="str">
+            <v>10.16</v>
+          </cell>
+          <cell r="B88">
+            <v>10</v>
+          </cell>
+          <cell r="C88">
+            <v>14.843500000000001</v>
+          </cell>
+          <cell r="D88">
+            <v>41779</v>
+          </cell>
+          <cell r="E88" t="str">
+            <v>8</v>
+          </cell>
+          <cell r="F88" t="str">
+            <v>I-87</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89" t="str">
+            <v>10.18</v>
+          </cell>
+          <cell r="B89">
+            <v>10</v>
+          </cell>
+          <cell r="C89">
+            <v>11.981</v>
+          </cell>
+          <cell r="D89">
+            <v>41779</v>
+          </cell>
+          <cell r="E89" t="str">
+            <v>8</v>
+          </cell>
+          <cell r="F89" t="str">
+            <v>I-88</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90" t="str">
+            <v>10.20</v>
+          </cell>
+          <cell r="B90">
+            <v>10</v>
+          </cell>
+          <cell r="C90">
+            <v>8.8829999999999991</v>
+          </cell>
+          <cell r="D90">
+            <v>41779</v>
+          </cell>
+          <cell r="E90" t="str">
+            <v>8</v>
+          </cell>
+          <cell r="F90" t="str">
+            <v>I-89</v>
           </cell>
         </row>
       </sheetData>
@@ -2367,26 +2736,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="16.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2415,7 +2784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.1</v>
       </c>
@@ -2431,9 +2800,8 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="str">
-        <f>A2&amp;"."&amp;B2</f>
-        <v>0.1.1</v>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="G2" s="2">
         <f>D2/$K$2</f>
@@ -2451,7 +2819,7 @@
         <v>1.1233333333333333</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.1</v>
       </c>
@@ -2484,7 +2852,7 @@
         <v>I-57</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.1</v>
       </c>
@@ -2517,7 +2885,7 @@
         <v>I-57</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.1</v>
       </c>
@@ -2550,7 +2918,7 @@
         <v>I-57</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.1</v>
       </c>
@@ -2583,7 +2951,7 @@
         <v>I-57</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.1</v>
       </c>
@@ -2616,7 +2984,7 @@
         <v>I-56</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.1</v>
       </c>
@@ -2649,7 +3017,7 @@
         <v>I-56</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.1</v>
       </c>
@@ -2682,7 +3050,7 @@
         <v>I-56</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.1</v>
       </c>
@@ -2715,7 +3083,7 @@
         <v>I-56</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.1</v>
       </c>
@@ -2748,7 +3116,7 @@
         <v>I-56</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.1</v>
       </c>
@@ -2781,7 +3149,7 @@
         <v>I-55</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0.1</v>
       </c>
@@ -2814,7 +3182,7 @@
         <v>I-55</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>0.1</v>
       </c>
@@ -2847,7 +3215,7 @@
         <v>I-55</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>0.1</v>
       </c>
@@ -2880,7 +3248,7 @@
         <v>I-55</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>0.1</v>
       </c>
@@ -2913,7 +3281,7 @@
         <v>I-55</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>0.1</v>
       </c>
@@ -2946,7 +3314,7 @@
         <v>I-54</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>0.1</v>
       </c>
@@ -2979,7 +3347,7 @@
         <v>I-54</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>0.1</v>
       </c>
@@ -3012,7 +3380,7 @@
         <v>I-54</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>0.1</v>
       </c>
@@ -3045,7 +3413,7 @@
         <v>I-54</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>0.1</v>
       </c>
@@ -3078,7 +3446,7 @@
         <v>I-54</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>0.1</v>
       </c>
@@ -3111,7 +3479,7 @@
         <v>I-44</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0.1</v>
       </c>
@@ -3144,7 +3512,7 @@
         <v>I-44</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0.1</v>
       </c>
@@ -3177,7 +3545,7 @@
         <v>I-44</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0.1</v>
       </c>
@@ -3210,7 +3578,7 @@
         <v>I-44</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.1</v>
       </c>
@@ -3243,7 +3611,7 @@
         <v>I-44</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0.1</v>
       </c>
@@ -3273,7 +3641,7 @@
         <v>I-43</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.1</v>
       </c>
@@ -3306,7 +3674,7 @@
         <v>I-43</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0.1</v>
       </c>
@@ -3339,7 +3707,7 @@
         <v>I-43</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.1</v>
       </c>
@@ -3372,7 +3740,7 @@
         <v>I-43</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0.1</v>
       </c>
@@ -3405,7 +3773,7 @@
         <v>I-43</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.1</v>
       </c>
@@ -3435,7 +3803,7 @@
         <v>I-42</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.1</v>
       </c>
@@ -3468,7 +3836,7 @@
         <v>I-42</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.1</v>
       </c>
@@ -3501,7 +3869,7 @@
         <v>I-42</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.1</v>
       </c>
@@ -3534,7 +3902,7 @@
         <v>I-42</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.1</v>
       </c>
@@ -3567,7 +3935,7 @@
         <v>I-42</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.1</v>
       </c>
@@ -3600,7 +3968,7 @@
         <v>I-41</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0.1</v>
       </c>
@@ -3633,7 +4001,7 @@
         <v>I-41</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>0.1</v>
       </c>
@@ -3666,7 +4034,7 @@
         <v>I-41</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>0.1</v>
       </c>
@@ -3699,7 +4067,7 @@
         <v>I-41</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>0.1</v>
       </c>
@@ -3732,7 +4100,7 @@
         <v>I-41</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>0.1</v>
       </c>
@@ -3765,7 +4133,7 @@
         <v>I-40</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>0.1</v>
       </c>
@@ -3798,7 +4166,7 @@
         <v>I-40</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>0.1</v>
       </c>
@@ -3831,7 +4199,7 @@
         <v>I-40</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>0.1</v>
       </c>
@@ -3864,7 +4232,7 @@
         <v>I-40</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>0.1</v>
       </c>
@@ -3897,7 +4265,7 @@
         <v>I-40</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>0.1</v>
       </c>
@@ -3927,7 +4295,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>0.1</v>
       </c>
@@ -3957,7 +4325,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>0.1</v>
       </c>
@@ -3987,7 +4355,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>0.1</v>
       </c>
@@ -4017,7 +4385,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>0.1</v>
       </c>
@@ -4047,7 +4415,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>0.1</v>
       </c>
@@ -4080,7 +4448,7 @@
         <v>I-39</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>0.1</v>
       </c>
@@ -4113,7 +4481,7 @@
         <v>I-39</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>0.1</v>
       </c>
@@ -4146,7 +4514,7 @@
         <v>I-39</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>0.1</v>
       </c>
@@ -4179,7 +4547,7 @@
         <v>I-39</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>0.1</v>
       </c>
@@ -4212,7 +4580,7 @@
         <v>I-39</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>0.1</v>
       </c>
@@ -4245,7 +4613,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>0.1</v>
       </c>
@@ -4275,7 +4643,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>0.1</v>
       </c>
@@ -4305,7 +4673,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>0.1</v>
       </c>
@@ -4335,7 +4703,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>0.1</v>
       </c>
@@ -4365,7 +4733,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>0.1</v>
       </c>
@@ -4398,7 +4766,7 @@
         <v>I-68</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>0.1</v>
       </c>
@@ -4431,7 +4799,7 @@
         <v>I-68</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>0.1</v>
       </c>
@@ -4464,7 +4832,7 @@
         <v>I-68</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>0.1</v>
       </c>
@@ -4497,7 +4865,7 @@
         <v>I-68</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>0.1</v>
       </c>
@@ -4530,7 +4898,7 @@
         <v>I-68</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>0.1</v>
       </c>
@@ -4563,7 +4931,7 @@
         <v>I-69</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>0.1</v>
       </c>
@@ -4596,7 +4964,7 @@
         <v>I-69</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>0.1</v>
       </c>
@@ -4629,7 +4997,7 @@
         <v>I-69</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>0.1</v>
       </c>
@@ -4662,7 +5030,7 @@
         <v>I-69</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>0.1</v>
       </c>
@@ -4695,7 +5063,7 @@
         <v>I-69</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>0.1</v>
       </c>
@@ -4728,7 +5096,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>0.1</v>
       </c>
@@ -4761,7 +5129,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>0.1</v>
       </c>
@@ -4794,7 +5162,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>0.1</v>
       </c>
@@ -4827,7 +5195,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>0.1</v>
       </c>
@@ -4857,7 +5225,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>0.1</v>
       </c>
@@ -4887,7 +5255,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>0.1</v>
       </c>
@@ -4917,7 +5285,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>0.1</v>
       </c>
@@ -4947,7 +5315,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>0.1</v>
       </c>
@@ -4977,7 +5345,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>0.1</v>
       </c>
@@ -5007,7 +5375,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>0.1</v>
       </c>
@@ -5040,7 +5408,7 @@
         <v>I-61</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>0.1</v>
       </c>
@@ -5073,7 +5441,7 @@
         <v>I-61</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>0.1</v>
       </c>
@@ -5106,7 +5474,7 @@
         <v>I-61</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>0.1</v>
       </c>
@@ -5139,7 +5507,7 @@
         <v>I-61</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>0.1</v>
       </c>
@@ -5172,7 +5540,7 @@
         <v>I-61</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>0.1</v>
       </c>
@@ -5205,7 +5573,7 @@
         <v>I-60</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>0.1</v>
       </c>
@@ -5238,7 +5606,7 @@
         <v>I-60</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>0.1</v>
       </c>
@@ -5271,7 +5639,7 @@
         <v>I-60</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>0.1</v>
       </c>
@@ -5304,7 +5672,7 @@
         <v>I-60</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>0.1</v>
       </c>
@@ -5337,7 +5705,7 @@
         <v>I-60</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>0.1</v>
       </c>
@@ -5370,7 +5738,7 @@
         <v>I-59</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>0.1</v>
       </c>
@@ -5403,7 +5771,7 @@
         <v>I-59</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>0.1</v>
       </c>
@@ -5436,7 +5804,7 @@
         <v>I-59</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>0.1</v>
       </c>
@@ -5469,7 +5837,7 @@
         <v>I-59</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>0.1</v>
       </c>
@@ -5502,7 +5870,7 @@
         <v>I-59</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>0.1</v>
       </c>
@@ -5535,7 +5903,7 @@
         <v>I-58</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>0.1</v>
       </c>
@@ -5568,7 +5936,7 @@
         <v>I-58</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>0.1</v>
       </c>
@@ -5601,7 +5969,7 @@
         <v>I-58</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>0.1</v>
       </c>
@@ -5634,7 +6002,7 @@
         <v>I-58</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>0.1</v>
       </c>
@@ -5667,7 +6035,7 @@
         <v>I-58</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1</v>
       </c>
@@ -5700,7 +6068,7 @@
         <v>I-38</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1</v>
       </c>
@@ -5733,7 +6101,7 @@
         <v>I-38</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1</v>
       </c>
@@ -5766,7 +6134,7 @@
         <v>I-38</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>1</v>
       </c>
@@ -5799,7 +6167,7 @@
         <v>I-38</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1</v>
       </c>
@@ -5832,7 +6200,7 @@
         <v>I-38</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1</v>
       </c>
@@ -5865,7 +6233,7 @@
         <v>I-45</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1</v>
       </c>
@@ -5898,7 +6266,7 @@
         <v>I-45</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1</v>
       </c>
@@ -5931,7 +6299,7 @@
         <v>I-45</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1</v>
       </c>
@@ -5964,7 +6332,7 @@
         <v>I-45</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1</v>
       </c>
@@ -5997,7 +6365,7 @@
         <v>I-45</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1</v>
       </c>
@@ -6030,7 +6398,7 @@
         <v>I-46</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1</v>
       </c>
@@ -6063,7 +6431,7 @@
         <v>I-46</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1</v>
       </c>
@@ -6096,7 +6464,7 @@
         <v>I-46</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>1</v>
       </c>
@@ -6129,7 +6497,7 @@
         <v>I-46</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1</v>
       </c>
@@ -6162,7 +6530,7 @@
         <v>I-46</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>1</v>
       </c>
@@ -6195,7 +6563,7 @@
         <v>I-47</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1</v>
       </c>
@@ -6228,7 +6596,7 @@
         <v>I-47</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>1</v>
       </c>
@@ -6261,7 +6629,7 @@
         <v>I-47</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>1</v>
       </c>
@@ -6294,7 +6662,7 @@
         <v>I-47</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>1</v>
       </c>
@@ -6327,7 +6695,7 @@
         <v>I-47</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1</v>
       </c>
@@ -6360,7 +6728,7 @@
         <v>I-48</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1</v>
       </c>
@@ -6390,7 +6758,7 @@
         <v>I-48</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1</v>
       </c>
@@ -6423,7 +6791,7 @@
         <v>I-48</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>1</v>
       </c>
@@ -6456,7 +6824,7 @@
         <v>I-48</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>1</v>
       </c>
@@ -6489,7 +6857,7 @@
         <v>I-48</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>1</v>
       </c>
@@ -6522,7 +6890,7 @@
         <v>I-49</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1</v>
       </c>
@@ -6555,7 +6923,7 @@
         <v>I-49</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>1</v>
       </c>
@@ -6588,7 +6956,7 @@
         <v>I-49</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>1</v>
       </c>
@@ -6621,7 +6989,7 @@
         <v>I-49</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>1</v>
       </c>
@@ -6654,7 +7022,7 @@
         <v>I-49</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>1</v>
       </c>
@@ -6687,7 +7055,7 @@
         <v>I-50</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>1</v>
       </c>
@@ -6720,7 +7088,7 @@
         <v>I-50</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>1</v>
       </c>
@@ -6753,7 +7121,7 @@
         <v>I-50</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>1</v>
       </c>
@@ -6786,7 +7154,7 @@
         <v>I-50</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>1</v>
       </c>
@@ -6819,7 +7187,7 @@
         <v>I-50</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>1</v>
       </c>
@@ -6852,7 +7220,7 @@
         <v>I-51</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>1</v>
       </c>
@@ -6885,7 +7253,7 @@
         <v>I-51</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>1</v>
       </c>
@@ -6918,7 +7286,7 @@
         <v>I-51</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>1</v>
       </c>
@@ -6951,7 +7319,7 @@
         <v>I-51</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>1</v>
       </c>
@@ -6984,7 +7352,7 @@
         <v>I-51</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>1</v>
       </c>
@@ -7017,7 +7385,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>1</v>
       </c>
@@ -7047,7 +7415,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>1</v>
       </c>
@@ -7077,7 +7445,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>1</v>
       </c>
@@ -7107,7 +7475,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>1</v>
       </c>
@@ -7137,7 +7505,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>1</v>
       </c>
@@ -7167,7 +7535,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>1</v>
       </c>
@@ -7197,7 +7565,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>1</v>
       </c>
@@ -7227,7 +7595,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>1</v>
       </c>
@@ -7257,7 +7625,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>1</v>
       </c>
@@ -7287,7 +7655,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>1</v>
       </c>
@@ -7320,7 +7688,7 @@
         <v>I-52</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>1</v>
       </c>
@@ -7353,7 +7721,7 @@
         <v>I-52</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>1</v>
       </c>
@@ -7386,7 +7754,7 @@
         <v>I-52</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>1</v>
       </c>
@@ -7419,7 +7787,7 @@
         <v>I-52</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>1</v>
       </c>
@@ -7452,7 +7820,7 @@
         <v>I-52</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>1</v>
       </c>
@@ -7485,7 +7853,7 @@
         <v>I-53</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>1</v>
       </c>
@@ -7518,7 +7886,7 @@
         <v>I-53</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>1</v>
       </c>
@@ -7551,7 +7919,7 @@
         <v>I-53</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>1</v>
       </c>
@@ -7584,7 +7952,7 @@
         <v>I-53</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>1</v>
       </c>
@@ -7617,7 +7985,7 @@
         <v>I-53</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>1</v>
       </c>
@@ -7650,7 +8018,7 @@
         <v>I-63</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>1</v>
       </c>
@@ -7683,7 +8051,7 @@
         <v>I-63</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>1</v>
       </c>
@@ -7716,7 +8084,7 @@
         <v>I-63</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>1</v>
       </c>
@@ -7749,7 +8117,7 @@
         <v>I-63</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>1</v>
       </c>
@@ -7782,7 +8150,7 @@
         <v>I-63</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>1</v>
       </c>
@@ -7815,7 +8183,7 @@
         <v>I-71</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>1</v>
       </c>
@@ -7848,7 +8216,7 @@
         <v>I-71</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>1</v>
       </c>
@@ -7881,7 +8249,7 @@
         <v>I-71</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>1</v>
       </c>
@@ -7914,7 +8282,7 @@
         <v>I-71</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>1</v>
       </c>
@@ -7947,7 +8315,7 @@
         <v>I-71</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>1</v>
       </c>
@@ -7980,7 +8348,7 @@
         <v>I-70</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>1</v>
       </c>
@@ -8013,7 +8381,7 @@
         <v>I-70</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>1</v>
       </c>
@@ -8043,7 +8411,7 @@
         <v>I-70</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>1</v>
       </c>
@@ -8076,7 +8444,7 @@
         <v>I-70</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>1</v>
       </c>
@@ -8109,7 +8477,7 @@
         <v>I-70</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>1</v>
       </c>
@@ -8142,7 +8510,7 @@
         <v>I-67</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>1</v>
       </c>
@@ -8175,7 +8543,7 @@
         <v>I-67</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>1</v>
       </c>
@@ -8208,7 +8576,7 @@
         <v>I-67</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>1</v>
       </c>
@@ -8241,7 +8609,7 @@
         <v>I-67</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>1</v>
       </c>
@@ -8274,7 +8642,7 @@
         <v>I-67</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>1</v>
       </c>
@@ -8307,7 +8675,7 @@
         <v>I-66</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>1</v>
       </c>
@@ -8340,7 +8708,7 @@
         <v>I-66</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>1</v>
       </c>
@@ -8373,7 +8741,7 @@
         <v>I-66</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>1</v>
       </c>
@@ -8406,7 +8774,7 @@
         <v>I-66</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>1</v>
       </c>
@@ -8439,7 +8807,7 @@
         <v>I-66</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>1</v>
       </c>
@@ -8472,7 +8840,7 @@
         <v>I-64</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>1</v>
       </c>
@@ -8505,7 +8873,7 @@
         <v>I-64</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>1</v>
       </c>
@@ -8538,7 +8906,7 @@
         <v>I-64</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>1</v>
       </c>
@@ -8571,7 +8939,7 @@
         <v>I-64</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>1</v>
       </c>
@@ -8604,7 +8972,7 @@
         <v>I-64</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>1</v>
       </c>
@@ -8637,7 +9005,7 @@
         <v>I-65</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>1</v>
       </c>
@@ -8670,7 +9038,7 @@
         <v>I-65</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>1</v>
       </c>
@@ -8703,7 +9071,7 @@
         <v>I-65</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>1</v>
       </c>
@@ -8736,7 +9104,7 @@
         <v>I-65</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>1</v>
       </c>
@@ -8769,7 +9137,7 @@
         <v>I-65</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>1</v>
       </c>
@@ -8802,7 +9170,7 @@
         <v>I-62</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>1</v>
       </c>
@@ -8835,7 +9203,7 @@
         <v>I-62</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>1</v>
       </c>
@@ -8868,7 +9236,7 @@
         <v>I-62</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>1</v>
       </c>
@@ -8901,7 +9269,7 @@
         <v>I-62</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>1</v>
       </c>
@@ -8934,7 +9302,7 @@
         <v>I-62</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>10</v>
       </c>
@@ -8962,12 +9330,12 @@
         <f t="shared" si="12"/>
         <v>1.9762611275964392</v>
       </c>
-      <c r="I202" t="e">
-        <f>VLOOKUP(F202,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+      <c r="I202" t="str">
+        <f>VLOOKUP(F202,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-72</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>10</v>
       </c>
@@ -8995,12 +9363,12 @@
         <f t="shared" si="12"/>
         <v>2.4213649851632049</v>
       </c>
-      <c r="I203" t="e">
-        <f>VLOOKUP(F203,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
+      <c r="I203" t="str">
+        <f>VLOOKUP(F203,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-72</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>10</v>
       </c>
@@ -9028,12 +9396,12 @@
         <f t="shared" si="12"/>
         <v>2.58160237388724</v>
       </c>
-      <c r="I204" t="e">
-        <f>VLOOKUP(F204,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
+      <c r="I204" t="str">
+        <f>VLOOKUP(F204,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-72</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>10</v>
       </c>
@@ -9061,12 +9429,12 @@
         <f t="shared" si="12"/>
         <v>2.6973293768545989</v>
       </c>
-      <c r="I205" t="e">
-        <f>VLOOKUP(F205,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
+      <c r="I205" t="str">
+        <f>VLOOKUP(F205,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-72</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>10</v>
       </c>
@@ -9094,12 +9462,12 @@
         <f t="shared" si="12"/>
         <v>2.456973293768546</v>
       </c>
-      <c r="I206" t="e">
-        <f>VLOOKUP(F206,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
+      <c r="I206" t="str">
+        <f>VLOOKUP(F206,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-72</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>10</v>
       </c>
@@ -9127,12 +9495,12 @@
         <f t="shared" si="12"/>
         <v>1.5311572700296736</v>
       </c>
-      <c r="I207" t="e">
-        <f>VLOOKUP(F207,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
+      <c r="I207" t="str">
+        <f>VLOOKUP(F207,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-73</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>10</v>
       </c>
@@ -9160,12 +9528,12 @@
         <f t="shared" si="12"/>
         <v>2.7507418397626116</v>
       </c>
-      <c r="I208" t="e">
-        <f>VLOOKUP(F208,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9">
+      <c r="I208" t="str">
+        <f>VLOOKUP(F208,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-73</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>10</v>
       </c>
@@ -9193,12 +9561,12 @@
         <f t="shared" si="12"/>
         <v>2.4391691394658759</v>
       </c>
-      <c r="I209" t="e">
-        <f>VLOOKUP(F209,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9">
+      <c r="I209" t="str">
+        <f>VLOOKUP(F209,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-73</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>10</v>
       </c>
@@ -9226,12 +9594,12 @@
         <f t="shared" si="12"/>
         <v>2.5905044510385755</v>
       </c>
-      <c r="I210" t="e">
-        <f>VLOOKUP(F210,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9">
+      <c r="I210" t="str">
+        <f>VLOOKUP(F210,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-73</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>10</v>
       </c>
@@ -9259,12 +9627,12 @@
         <f t="shared" si="12"/>
         <v>2.9465875370919887</v>
       </c>
-      <c r="I211" t="e">
-        <f>VLOOKUP(F211,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9">
+      <c r="I211" t="str">
+        <f>VLOOKUP(F211,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-73</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>10</v>
       </c>
@@ -9292,12 +9660,12 @@
         <f t="shared" si="12"/>
         <v>1.8427299703264093</v>
       </c>
-      <c r="I212" t="e">
-        <f>VLOOKUP(F212,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9">
+      <c r="I212" t="str">
+        <f>VLOOKUP(F212,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-74</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>10</v>
       </c>
@@ -9325,12 +9693,12 @@
         <f t="shared" si="12"/>
         <v>2.4213649851632049</v>
       </c>
-      <c r="I213" t="e">
-        <f>VLOOKUP(F213,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9">
+      <c r="I213" t="str">
+        <f>VLOOKUP(F213,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-74</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>10</v>
       </c>
@@ -9358,12 +9726,12 @@
         <f t="shared" si="12"/>
         <v>2.8130563798219588</v>
       </c>
-      <c r="I214" t="e">
-        <f>VLOOKUP(F214,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9">
+      <c r="I214" t="str">
+        <f>VLOOKUP(F214,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-74</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>10</v>
       </c>
@@ -9391,12 +9759,12 @@
         <f t="shared" si="12"/>
         <v>1.8427299703264093</v>
       </c>
-      <c r="I215" t="e">
-        <f>VLOOKUP(F215,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9">
+      <c r="I215" t="str">
+        <f>VLOOKUP(F215,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-74</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>10</v>
       </c>
@@ -9424,12 +9792,12 @@
         <f t="shared" si="12"/>
         <v>2.3323442136498516</v>
       </c>
-      <c r="I216" t="e">
-        <f>VLOOKUP(F216,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9">
+      <c r="I216" t="str">
+        <f>VLOOKUP(F216,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-74</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>10</v>
       </c>
@@ -9457,12 +9825,12 @@
         <f t="shared" si="12"/>
         <v>2.1454005934718099</v>
       </c>
-      <c r="I217" t="e">
-        <f>VLOOKUP(F217,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9">
+      <c r="I217" t="str">
+        <f>VLOOKUP(F217,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-75</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>10</v>
       </c>
@@ -9490,12 +9858,12 @@
         <f t="shared" si="12"/>
         <v>3.2403560830860534</v>
       </c>
-      <c r="I218" t="e">
-        <f>VLOOKUP(F218,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9">
+      <c r="I218" t="str">
+        <f>VLOOKUP(F218,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-75</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>10</v>
       </c>
@@ -9523,12 +9891,12 @@
         <f t="shared" si="12"/>
         <v>3.1602373887240356</v>
       </c>
-      <c r="I219" t="e">
-        <f>VLOOKUP(F219,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9">
+      <c r="I219" t="str">
+        <f>VLOOKUP(F219,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-75</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>10</v>
       </c>
@@ -9556,12 +9924,12 @@
         <f t="shared" si="12"/>
         <v>2.8397626112759644</v>
       </c>
-      <c r="I220" t="e">
-        <f>VLOOKUP(F220,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9">
+      <c r="I220" t="str">
+        <f>VLOOKUP(F220,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-75</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>10</v>
       </c>
@@ -9589,12 +9957,12 @@
         <f t="shared" si="12"/>
         <v>2.5548961424332344</v>
       </c>
-      <c r="I221" t="e">
-        <f>VLOOKUP(F221,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9">
+      <c r="I221" t="str">
+        <f>VLOOKUP(F221,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-75</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>10</v>
       </c>
@@ -9622,12 +9990,12 @@
         <f t="shared" si="12"/>
         <v>1.57566765578635</v>
       </c>
-      <c r="I222" t="e">
-        <f>VLOOKUP(F222,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9">
+      <c r="I222" t="str">
+        <f>VLOOKUP(F222,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-76</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>10</v>
       </c>
@@ -9655,12 +10023,12 @@
         <f t="shared" si="12"/>
         <v>2.2344213649851632</v>
       </c>
-      <c r="I223" t="e">
-        <f>VLOOKUP(F223,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9">
+      <c r="I223" t="str">
+        <f>VLOOKUP(F223,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-76</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>10</v>
       </c>
@@ -9688,12 +10056,12 @@
         <f t="shared" si="12"/>
         <v>2.0830860534124631</v>
       </c>
-      <c r="I224" t="e">
-        <f>VLOOKUP(F224,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9">
+      <c r="I224" t="str">
+        <f>VLOOKUP(F224,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-76</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>10</v>
       </c>
@@ -9721,12 +10089,12 @@
         <f t="shared" si="12"/>
         <v>2.3056379821958459</v>
       </c>
-      <c r="I225" t="e">
-        <f>VLOOKUP(F225,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9">
+      <c r="I225" t="str">
+        <f>VLOOKUP(F225,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-76</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>10</v>
       </c>
@@ -9754,12 +10122,12 @@
         <f t="shared" si="12"/>
         <v>2.5370919881305638</v>
       </c>
-      <c r="I226" t="e">
-        <f>VLOOKUP(F226,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9">
+      <c r="I226" t="str">
+        <f>VLOOKUP(F226,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-76</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>10</v>
       </c>
@@ -9787,12 +10155,12 @@
         <f t="shared" si="12"/>
         <v>1.57566765578635</v>
       </c>
-      <c r="I227" t="e">
-        <f>VLOOKUP(F227,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9">
+      <c r="I227" t="str">
+        <f>VLOOKUP(F227,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-77</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>10</v>
       </c>
@@ -9820,12 +10188,12 @@
         <f t="shared" si="12"/>
         <v>2.0919881305637982</v>
       </c>
-      <c r="I228" t="e">
-        <f>VLOOKUP(F228,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9">
+      <c r="I228" t="str">
+        <f>VLOOKUP(F228,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-77</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>10</v>
       </c>
@@ -9853,12 +10221,12 @@
         <f t="shared" si="12"/>
         <v>1.771513353115727</v>
       </c>
-      <c r="I229" t="e">
-        <f>VLOOKUP(F229,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9">
+      <c r="I229" t="str">
+        <f>VLOOKUP(F229,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-77</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>10</v>
       </c>
@@ -9886,12 +10254,12 @@
         <f t="shared" si="12"/>
         <v>3.008902077151336</v>
       </c>
-      <c r="I230" t="e">
-        <f>VLOOKUP(F230,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9">
+      <c r="I230" t="str">
+        <f>VLOOKUP(F230,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-77</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>10</v>
       </c>
@@ -9919,12 +10287,12 @@
         <f t="shared" si="12"/>
         <v>1.9228486646884275</v>
       </c>
-      <c r="I231" t="e">
-        <f>VLOOKUP(F231,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9">
+      <c r="I231" t="str">
+        <f>VLOOKUP(F231,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-77</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>10</v>
       </c>
@@ -9952,12 +10320,12 @@
         <f t="shared" si="12"/>
         <v>3.0445103857566771</v>
       </c>
-      <c r="I232" t="e">
-        <f>VLOOKUP(F232,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9">
+      <c r="I232" t="str">
+        <f>VLOOKUP(F232,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-78</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>10</v>
       </c>
@@ -9985,12 +10353,12 @@
         <f t="shared" si="12"/>
         <v>2.9198813056379826</v>
       </c>
-      <c r="I233" t="e">
-        <f>VLOOKUP(F233,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9">
+      <c r="I233" t="str">
+        <f>VLOOKUP(F233,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-78</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>10</v>
       </c>
@@ -10018,12 +10386,12 @@
         <f t="shared" si="12"/>
         <v>2.1454005934718099</v>
       </c>
-      <c r="I234" t="e">
-        <f>VLOOKUP(F234,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9">
+      <c r="I234" t="str">
+        <f>VLOOKUP(F234,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-78</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>10</v>
       </c>
@@ -10051,12 +10419,12 @@
         <f t="shared" si="12"/>
         <v>2.3323442136498516</v>
       </c>
-      <c r="I235" t="e">
-        <f>VLOOKUP(F235,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9">
+      <c r="I235" t="str">
+        <f>VLOOKUP(F235,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-78</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>10</v>
       </c>
@@ -10084,12 +10452,12 @@
         <f t="shared" si="12"/>
         <v>2.172106824925816</v>
       </c>
-      <c r="I236" t="e">
-        <f>VLOOKUP(F236,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9">
+      <c r="I236" t="str">
+        <f>VLOOKUP(F236,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-78</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>10</v>
       </c>
@@ -10117,12 +10485,12 @@
         <f t="shared" si="12"/>
         <v>1.8694362017804154</v>
       </c>
-      <c r="I237" t="e">
-        <f>VLOOKUP(F237,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9">
+      <c r="I237" t="str">
+        <f>VLOOKUP(F237,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-79</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>10</v>
       </c>
@@ -10150,12 +10518,12 @@
         <f t="shared" si="12"/>
         <v>2.5905044510385755</v>
       </c>
-      <c r="I238" t="e">
-        <f>VLOOKUP(F238,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9">
+      <c r="I238" t="str">
+        <f>VLOOKUP(F238,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-79</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>10</v>
       </c>
@@ -10183,12 +10551,12 @@
         <f t="shared" si="12"/>
         <v>1.7359050445103859</v>
       </c>
-      <c r="I239" t="e">
-        <f>VLOOKUP(F239,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9">
+      <c r="I239" t="str">
+        <f>VLOOKUP(F239,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-79</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>10</v>
       </c>
@@ -10216,12 +10584,12 @@
         <f t="shared" si="12"/>
         <v>1.7537091988130564</v>
       </c>
-      <c r="I240" t="e">
-        <f>VLOOKUP(F240,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9">
+      <c r="I240" t="str">
+        <f>VLOOKUP(F240,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-79</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>10</v>
       </c>
@@ -10249,12 +10617,12 @@
         <f t="shared" si="12"/>
         <v>2.0563798219584575</v>
       </c>
-      <c r="I241" t="e">
-        <f>VLOOKUP(F241,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9">
+      <c r="I241" t="str">
+        <f>VLOOKUP(F241,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-79</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>10</v>
       </c>
@@ -10282,12 +10650,12 @@
         <f t="shared" si="12"/>
         <v>1.3798219584569731</v>
       </c>
-      <c r="I242" t="e">
-        <f>VLOOKUP(F242,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9">
+      <c r="I242" t="str">
+        <f>VLOOKUP(F242,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-80</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>10</v>
       </c>
@@ -10315,12 +10683,12 @@
         <f t="shared" si="12"/>
         <v>2.4302670623145404</v>
       </c>
-      <c r="I243" t="e">
-        <f>VLOOKUP(F243,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9">
+      <c r="I243" t="str">
+        <f>VLOOKUP(F243,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-80</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>10</v>
       </c>
@@ -10348,12 +10716,12 @@
         <f t="shared" si="12"/>
         <v>2.0207715133531159</v>
       </c>
-      <c r="I244" t="e">
-        <f>VLOOKUP(F244,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9">
+      <c r="I244" t="str">
+        <f>VLOOKUP(F244,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-80</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>10</v>
       </c>
@@ -10381,12 +10749,12 @@
         <f t="shared" si="12"/>
         <v>1.771513353115727</v>
       </c>
-      <c r="I245" t="e">
-        <f>VLOOKUP(F245,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9">
+      <c r="I245" t="str">
+        <f>VLOOKUP(F245,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-80</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>10</v>
       </c>
@@ -10414,12 +10782,12 @@
         <f t="shared" si="12"/>
         <v>1.8071216617210684</v>
       </c>
-      <c r="I246" t="e">
-        <f>VLOOKUP(F246,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9">
+      <c r="I246" t="str">
+        <f>VLOOKUP(F246,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-80</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>10</v>
       </c>
@@ -10447,12 +10815,12 @@
         <f t="shared" si="12"/>
         <v>2.5103857566765573</v>
       </c>
-      <c r="I247" t="e">
-        <f>VLOOKUP(F247,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9">
+      <c r="I247" t="str">
+        <f>VLOOKUP(F247,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-81</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>10</v>
       </c>
@@ -10480,12 +10848,12 @@
         <f t="shared" si="12"/>
         <v>2.7507418397626116</v>
       </c>
-      <c r="I248" t="e">
-        <f>VLOOKUP(F248,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9">
+      <c r="I248" t="str">
+        <f>VLOOKUP(F248,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-81</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>10</v>
       </c>
@@ -10513,12 +10881,12 @@
         <f t="shared" si="12"/>
         <v>1.7002967359050447</v>
       </c>
-      <c r="I249" t="e">
-        <f>VLOOKUP(F249,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9">
+      <c r="I249" t="str">
+        <f>VLOOKUP(F249,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-81</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>10</v>
       </c>
@@ -10546,12 +10914,12 @@
         <f t="shared" si="12"/>
         <v>3.0267062314540061</v>
       </c>
-      <c r="I250" t="e">
-        <f>VLOOKUP(F250,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9">
+      <c r="I250" t="str">
+        <f>VLOOKUP(F250,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-81</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>10</v>
       </c>
@@ -10579,12 +10947,12 @@
         <f t="shared" si="12"/>
         <v>1.4421364985163208</v>
       </c>
-      <c r="I251" t="e">
-        <f>VLOOKUP(F251,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9">
+      <c r="I251" t="str">
+        <f>VLOOKUP(F251,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-81</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>10</v>
       </c>
@@ -10612,12 +10980,12 @@
         <f t="shared" si="12"/>
         <v>3.1602373887240356</v>
       </c>
-      <c r="I252" t="e">
-        <f>VLOOKUP(F252,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9">
+      <c r="I252" t="str">
+        <f>VLOOKUP(F252,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-82</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>10</v>
       </c>
@@ -10645,12 +11013,12 @@
         <f t="shared" si="12"/>
         <v>4.931750741839763</v>
       </c>
-      <c r="I253" t="e">
-        <f>VLOOKUP(F253,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9">
+      <c r="I253" t="str">
+        <f>VLOOKUP(F253,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-82</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>10</v>
       </c>
@@ -10678,12 +11046,12 @@
         <f t="shared" si="12"/>
         <v>3.6053412462908012</v>
       </c>
-      <c r="I254" t="e">
-        <f>VLOOKUP(F254,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9">
+      <c r="I254" t="str">
+        <f>VLOOKUP(F254,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-82</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>10</v>
       </c>
@@ -10711,12 +11079,12 @@
         <f t="shared" si="12"/>
         <v>2.8575667655786354</v>
       </c>
-      <c r="I255" t="e">
-        <f>VLOOKUP(F255,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9">
+      <c r="I255" t="str">
+        <f>VLOOKUP(F255,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-82</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>10</v>
       </c>
@@ -10744,12 +11112,12 @@
         <f t="shared" si="12"/>
         <v>2.741839762611276</v>
       </c>
-      <c r="I256" t="e">
-        <f>VLOOKUP(F256,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9">
+      <c r="I256" t="str">
+        <f>VLOOKUP(F256,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-82</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>10</v>
       </c>
@@ -10777,12 +11145,12 @@
         <f t="shared" si="12"/>
         <v>2.2059347181008899</v>
       </c>
-      <c r="I257" t="e">
-        <f>VLOOKUP(F257,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9">
+      <c r="I257" t="str">
+        <f>VLOOKUP(F257,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-83</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>10</v>
       </c>
@@ -10810,12 +11178,12 @@
         <f t="shared" si="12"/>
         <v>2.6973293768545989</v>
       </c>
-      <c r="I258" t="e">
-        <f>VLOOKUP(F258,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9">
+      <c r="I258" t="str">
+        <f>VLOOKUP(F258,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-83</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>10</v>
       </c>
@@ -10843,12 +11211,12 @@
         <f t="shared" si="12"/>
         <v>3.0534124629080122</v>
       </c>
-      <c r="I259" t="e">
-        <f>VLOOKUP(F259,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9">
+      <c r="I259" t="str">
+        <f>VLOOKUP(F259,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-83</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>10</v>
       </c>
@@ -10876,12 +11244,12 @@
         <f t="shared" si="12"/>
         <v>1.8249258160237389</v>
       </c>
-      <c r="I260" t="e">
-        <f>VLOOKUP(F260,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9">
+      <c r="I260" t="str">
+        <f>VLOOKUP(F260,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-83</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>10</v>
       </c>
@@ -10909,12 +11277,12 @@
         <f t="shared" ref="H261:H324" si="15">G261*A261</f>
         <v>3.142433234421365</v>
       </c>
-      <c r="I261" t="e">
-        <f>VLOOKUP(F261,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9">
+      <c r="I261" t="str">
+        <f>VLOOKUP(F261,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-83</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>10</v>
       </c>
@@ -10942,12 +11310,12 @@
         <f t="shared" si="15"/>
         <v>2.2700296735905043</v>
       </c>
-      <c r="I262" t="e">
-        <f>VLOOKUP(F262,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9">
+      <c r="I262" t="str">
+        <f>VLOOKUP(F262,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-84</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>10</v>
       </c>
@@ -10975,12 +11343,12 @@
         <f t="shared" si="15"/>
         <v>3.1157270029673589</v>
       </c>
-      <c r="I263" t="e">
-        <f>VLOOKUP(F263,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9">
+      <c r="I263" t="str">
+        <f>VLOOKUP(F263,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-84</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>10</v>
       </c>
@@ -11008,12 +11376,12 @@
         <f t="shared" si="15"/>
         <v>1.4510385756676558</v>
       </c>
-      <c r="I264" t="e">
-        <f>VLOOKUP(F264,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9">
+      <c r="I264" t="str">
+        <f>VLOOKUP(F264,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-84</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>10</v>
       </c>
@@ -11041,12 +11409,12 @@
         <f t="shared" si="15"/>
         <v>2.7596439169139462</v>
       </c>
-      <c r="I265" t="e">
-        <f>VLOOKUP(F265,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9">
+      <c r="I265" t="str">
+        <f>VLOOKUP(F265,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-84</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>10</v>
       </c>
@@ -11074,12 +11442,12 @@
         <f t="shared" si="15"/>
         <v>2.3679525222551931</v>
       </c>
-      <c r="I266" t="e">
-        <f>VLOOKUP(F266,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9">
+      <c r="I266" t="str">
+        <f>VLOOKUP(F266,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-84</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>10</v>
       </c>
@@ -11107,12 +11475,12 @@
         <f t="shared" si="15"/>
         <v>1.7181008902077153</v>
       </c>
-      <c r="I267" t="e">
-        <f>VLOOKUP(F267,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9">
+      <c r="I267" t="str">
+        <f>VLOOKUP(F267,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-85</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>10</v>
       </c>
@@ -11140,12 +11508,12 @@
         <f t="shared" si="15"/>
         <v>2.7952522255192882</v>
       </c>
-      <c r="I268" t="e">
-        <f>VLOOKUP(F268,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9">
+      <c r="I268" t="str">
+        <f>VLOOKUP(F268,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-85</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>10</v>
       </c>
@@ -11173,12 +11541,12 @@
         <f t="shared" si="15"/>
         <v>2.2700296735905043</v>
       </c>
-      <c r="I269" t="e">
-        <f>VLOOKUP(F269,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9">
+      <c r="I269" t="str">
+        <f>VLOOKUP(F269,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-85</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>10</v>
       </c>
@@ -11206,12 +11574,12 @@
         <f t="shared" si="15"/>
         <v>3.1869436201780417</v>
       </c>
-      <c r="I270" t="e">
-        <f>VLOOKUP(F270,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9">
+      <c r="I270" t="str">
+        <f>VLOOKUP(F270,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-85</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>10</v>
       </c>
@@ -11239,12 +11607,12 @@
         <f t="shared" si="15"/>
         <v>3.4183976261127595</v>
       </c>
-      <c r="I271" t="e">
-        <f>VLOOKUP(F271,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9">
+      <c r="I271" t="str">
+        <f>VLOOKUP(F271,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-85</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>10</v>
       </c>
@@ -11272,12 +11640,12 @@
         <f t="shared" si="15"/>
         <v>2.2611275964391693</v>
       </c>
-      <c r="I272" t="e">
-        <f>VLOOKUP(F272,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9">
+      <c r="I272" t="str">
+        <f>VLOOKUP(F272,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-86</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>10</v>
       </c>
@@ -11305,12 +11673,12 @@
         <f t="shared" si="15"/>
         <v>1.4599406528189913</v>
       </c>
-      <c r="I273" t="e">
-        <f>VLOOKUP(F273,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9">
+      <c r="I273" t="str">
+        <f>VLOOKUP(F273,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-86</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>10</v>
       </c>
@@ -11338,12 +11706,12 @@
         <f t="shared" si="15"/>
         <v>1.99406528189911</v>
       </c>
-      <c r="I274" t="e">
-        <f>VLOOKUP(F274,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9">
+      <c r="I274" t="str">
+        <f>VLOOKUP(F274,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-86</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>10</v>
       </c>
@@ -11371,12 +11739,12 @@
         <f t="shared" si="15"/>
         <v>2.9643916913946589</v>
       </c>
-      <c r="I275" t="e">
-        <f>VLOOKUP(F275,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9">
+      <c r="I275" t="str">
+        <f>VLOOKUP(F275,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-86</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>10</v>
       </c>
@@ -11404,12 +11772,12 @@
         <f t="shared" si="15"/>
         <v>2.4658753709198815</v>
       </c>
-      <c r="I276" t="e">
-        <f>VLOOKUP(F276,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9">
+      <c r="I276" t="str">
+        <f>VLOOKUP(F276,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-86</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>10</v>
       </c>
@@ -11437,12 +11805,12 @@
         <f t="shared" si="15"/>
         <v>1.4599406528189913</v>
       </c>
-      <c r="I277" t="e">
-        <f>VLOOKUP(F277,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9">
+      <c r="I277" t="str">
+        <f>VLOOKUP(F277,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-87</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>10</v>
       </c>
@@ -11470,12 +11838,12 @@
         <f t="shared" si="15"/>
         <v>2.7240356083086055</v>
       </c>
-      <c r="I278" t="e">
-        <f>VLOOKUP(F278,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9">
+      <c r="I278" t="str">
+        <f>VLOOKUP(F278,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-87</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>10</v>
       </c>
@@ -11503,12 +11871,12 @@
         <f t="shared" si="15"/>
         <v>2.9465875370919887</v>
       </c>
-      <c r="I279" t="e">
-        <f>VLOOKUP(F279,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9">
+      <c r="I279" t="str">
+        <f>VLOOKUP(F279,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-87</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>10</v>
       </c>
@@ -11536,12 +11904,12 @@
         <f t="shared" si="15"/>
         <v>2.6617210682492582</v>
       </c>
-      <c r="I280" t="e">
-        <f>VLOOKUP(F280,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9">
+      <c r="I280" t="str">
+        <f>VLOOKUP(F280,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-87</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>10</v>
       </c>
@@ -11569,12 +11937,12 @@
         <f t="shared" si="15"/>
         <v>2.4480712166172109</v>
       </c>
-      <c r="I281" t="e">
-        <f>VLOOKUP(F281,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9">
+      <c r="I281" t="str">
+        <f>VLOOKUP(F281,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-87</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>10</v>
       </c>
@@ -11600,11 +11968,11 @@
         <v>0</v>
       </c>
       <c r="I282" t="e">
-        <f>VLOOKUP(F282,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
+        <f>VLOOKUP(F282,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="283" spans="1:9">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>10</v>
       </c>
@@ -11630,11 +11998,11 @@
         <v>0</v>
       </c>
       <c r="I283" t="e">
-        <f>VLOOKUP(F283,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
+        <f>VLOOKUP(F283,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="284" spans="1:9">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>10</v>
       </c>
@@ -11660,11 +12028,11 @@
         <v>0</v>
       </c>
       <c r="I284" t="e">
-        <f>VLOOKUP(F284,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
+        <f>VLOOKUP(F284,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="285" spans="1:9">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>10</v>
       </c>
@@ -11690,11 +12058,11 @@
         <v>0</v>
       </c>
       <c r="I285" t="e">
-        <f>VLOOKUP(F285,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
+        <f>VLOOKUP(F285,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="286" spans="1:9">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>10</v>
       </c>
@@ -11720,11 +12088,11 @@
         <v>0</v>
       </c>
       <c r="I286" t="e">
-        <f>VLOOKUP(F286,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
+        <f>VLOOKUP(F286,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="287" spans="1:9">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>10</v>
       </c>
@@ -11752,12 +12120,12 @@
         <f t="shared" si="15"/>
         <v>1.5489614243323442</v>
       </c>
-      <c r="I287" t="e">
-        <f>VLOOKUP(F287,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9">
+      <c r="I287" t="str">
+        <f>VLOOKUP(F287,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-88</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>10</v>
       </c>
@@ -11785,12 +12153,12 @@
         <f t="shared" si="15"/>
         <v>2.1275964391691393</v>
       </c>
-      <c r="I288" t="e">
-        <f>VLOOKUP(F288,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9">
+      <c r="I288" t="str">
+        <f>VLOOKUP(F288,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-88</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>10</v>
       </c>
@@ -11818,12 +12186,12 @@
         <f t="shared" si="15"/>
         <v>2.2789317507418398</v>
       </c>
-      <c r="I289" t="e">
-        <f>VLOOKUP(F289,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9">
+      <c r="I289" t="str">
+        <f>VLOOKUP(F289,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-88</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>10</v>
       </c>
@@ -11851,12 +12219,12 @@
         <f t="shared" si="15"/>
         <v>3.0801186943620178</v>
       </c>
-      <c r="I290" t="e">
-        <f>VLOOKUP(F290,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9">
+      <c r="I290" t="str">
+        <f>VLOOKUP(F290,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-88</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>10</v>
       </c>
@@ -11884,12 +12252,12 @@
         <f t="shared" si="15"/>
         <v>1.9406528189910979</v>
       </c>
-      <c r="I291" t="e">
-        <f>VLOOKUP(F291,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9">
+      <c r="I291" t="str">
+        <f>VLOOKUP(F291,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-88</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>10</v>
       </c>
@@ -11918,11 +12286,11 @@
         <v>1.7270029673590506</v>
       </c>
       <c r="I292" t="e">
-        <f>VLOOKUP(F292,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
+        <f>VLOOKUP(F292,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="293" spans="1:9">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>10</v>
       </c>
@@ -11948,11 +12316,11 @@
         <v>0</v>
       </c>
       <c r="I293" t="e">
-        <f>VLOOKUP(F293,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
+        <f>VLOOKUP(F293,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="294" spans="1:9">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>10</v>
       </c>
@@ -11978,11 +12346,11 @@
         <v>0</v>
       </c>
       <c r="I294" t="e">
-        <f>VLOOKUP(F294,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
+        <f>VLOOKUP(F294,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="295" spans="1:9">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>10</v>
       </c>
@@ -12008,11 +12376,11 @@
         <v>0</v>
       </c>
       <c r="I295" t="e">
-        <f>VLOOKUP(F295,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
+        <f>VLOOKUP(F295,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="296" spans="1:9">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>10</v>
       </c>
@@ -12038,11 +12406,11 @@
         <v>0</v>
       </c>
       <c r="I296" t="e">
-        <f>VLOOKUP(F296,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
+        <f>VLOOKUP(F296,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="297" spans="1:9">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>10</v>
       </c>
@@ -12070,12 +12438,12 @@
         <f t="shared" si="15"/>
         <v>1.6557863501483681</v>
       </c>
-      <c r="I297" t="e">
-        <f>VLOOKUP(F297,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9">
+      <c r="I297" t="str">
+        <f>VLOOKUP(F297,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-89</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>10</v>
       </c>
@@ -12103,12 +12471,12 @@
         <f t="shared" si="15"/>
         <v>2.58160237388724</v>
       </c>
-      <c r="I298" t="e">
-        <f>VLOOKUP(F298,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9">
+      <c r="I298" t="str">
+        <f>VLOOKUP(F298,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-89</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>10</v>
       </c>
@@ -12136,12 +12504,12 @@
         <f t="shared" si="15"/>
         <v>2.599406528189911</v>
       </c>
-      <c r="I299" t="e">
-        <f>VLOOKUP(F299,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9">
+      <c r="I299" t="str">
+        <f>VLOOKUP(F299,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-89</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>10</v>
       </c>
@@ -12169,12 +12537,12 @@
         <f t="shared" si="15"/>
         <v>2.5637982195845699</v>
       </c>
-      <c r="I300" t="e">
-        <f>VLOOKUP(F300,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9">
+      <c r="I300" t="str">
+        <f>VLOOKUP(F300,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-89</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>10</v>
       </c>
@@ -12202,12 +12570,12 @@
         <f t="shared" si="15"/>
         <v>2.189910979228487</v>
       </c>
-      <c r="I301" t="e">
-        <f>VLOOKUP(F301,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9">
+      <c r="I301" t="str">
+        <f>VLOOKUP(F301,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
+        <v>I-89</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>20</v>
       </c>
@@ -12236,11 +12604,11 @@
         <v>3.1691394658753707</v>
       </c>
       <c r="I302" t="str">
-        <f>VLOOKUP(F302,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
+        <f>VLOOKUP(F302,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
         <v>I-6</v>
       </c>
     </row>
-    <row r="303" spans="1:9">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>20</v>
       </c>
@@ -12269,11 +12637,11 @@
         <v>3.5020771513353122</v>
       </c>
       <c r="I303" t="str">
-        <f>VLOOKUP(F303,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
+        <f>VLOOKUP(F303,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
         <v>I-6</v>
       </c>
     </row>
-    <row r="304" spans="1:9">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>20</v>
       </c>
@@ -12302,11 +12670,11 @@
         <v>3.6676557863501484</v>
       </c>
       <c r="I304" t="str">
-        <f>VLOOKUP(F304,[1]ImidLabData!$A$1:$F$72,6,FALSE)</f>
+        <f>VLOOKUP(F304,[1]ImidLabData!$A$2:$F$90,6,FALSE)</f>
         <v>I-6</v>
       </c>
     </row>
-    <row r="305" spans="1:9">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>20</v>
       </c>
@@ -12339,7 +12707,7 @@
         <v>I-6</v>
       </c>
     </row>
-    <row r="306" spans="1:9">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>20</v>
       </c>
@@ -12372,7 +12740,7 @@
         <v>I-6</v>
       </c>
     </row>
-    <row r="307" spans="1:9">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>20</v>
       </c>
@@ -12405,7 +12773,7 @@
         <v>I-7</v>
       </c>
     </row>
-    <row r="308" spans="1:9">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>20</v>
       </c>
@@ -12438,7 +12806,7 @@
         <v>I-7</v>
       </c>
     </row>
-    <row r="309" spans="1:9">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>20</v>
       </c>
@@ -12471,7 +12839,7 @@
         <v>I-7</v>
       </c>
     </row>
-    <row r="310" spans="1:9">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>20</v>
       </c>
@@ -12504,7 +12872,7 @@
         <v>I-7</v>
       </c>
     </row>
-    <row r="311" spans="1:9">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>20</v>
       </c>
@@ -12537,7 +12905,7 @@
         <v>I-7</v>
       </c>
     </row>
-    <row r="312" spans="1:9">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>20</v>
       </c>
@@ -12570,7 +12938,7 @@
         <v>I-8</v>
       </c>
     </row>
-    <row r="313" spans="1:9">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>20</v>
       </c>
@@ -12603,7 +12971,7 @@
         <v>I-8</v>
       </c>
     </row>
-    <row r="314" spans="1:9">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>20</v>
       </c>
@@ -12636,7 +13004,7 @@
         <v>I-8</v>
       </c>
     </row>
-    <row r="315" spans="1:9">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>20</v>
       </c>
@@ -12669,7 +13037,7 @@
         <v>I-8</v>
       </c>
     </row>
-    <row r="316" spans="1:9">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>20</v>
       </c>
@@ -12702,7 +13070,7 @@
         <v>I-8</v>
       </c>
     </row>
-    <row r="317" spans="1:9">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>20</v>
       </c>
@@ -12735,7 +13103,7 @@
         <v>I-9</v>
       </c>
     </row>
-    <row r="318" spans="1:9">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>20</v>
       </c>
@@ -12768,7 +13136,7 @@
         <v>I-9</v>
       </c>
     </row>
-    <row r="319" spans="1:9">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>20</v>
       </c>
@@ -12801,7 +13169,7 @@
         <v>I-9</v>
       </c>
     </row>
-    <row r="320" spans="1:9">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>20</v>
       </c>
@@ -12834,7 +13202,7 @@
         <v>I-9</v>
       </c>
     </row>
-    <row r="321" spans="1:9">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>20</v>
       </c>
@@ -12867,7 +13235,7 @@
         <v>I-9</v>
       </c>
     </row>
-    <row r="322" spans="1:9">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>20</v>
       </c>
@@ -12900,7 +13268,7 @@
         <v>I-10</v>
       </c>
     </row>
-    <row r="323" spans="1:9">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>20</v>
       </c>
@@ -12933,7 +13301,7 @@
         <v>I-10</v>
       </c>
     </row>
-    <row r="324" spans="1:9">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>20</v>
       </c>
@@ -12966,7 +13334,7 @@
         <v>I-10</v>
       </c>
     </row>
-    <row r="325" spans="1:9">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>20</v>
       </c>
@@ -12999,7 +13367,7 @@
         <v>I-10</v>
       </c>
     </row>
-    <row r="326" spans="1:9">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>20</v>
       </c>
@@ -13032,7 +13400,7 @@
         <v>I-10</v>
       </c>
     </row>
-    <row r="327" spans="1:9">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>20</v>
       </c>
@@ -13065,7 +13433,7 @@
         <v>I-24</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>20</v>
       </c>
@@ -13098,7 +13466,7 @@
         <v>I-24</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>20</v>
       </c>
@@ -13131,7 +13499,7 @@
         <v>I-24</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>20</v>
       </c>
@@ -13164,7 +13532,7 @@
         <v>I-24</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>20</v>
       </c>
@@ -13197,7 +13565,7 @@
         <v>I-24</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>20</v>
       </c>
@@ -13230,7 +13598,7 @@
         <v>I-25</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>20</v>
       </c>
@@ -13263,7 +13631,7 @@
         <v>I-25</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>20</v>
       </c>
@@ -13296,7 +13664,7 @@
         <v>I-25</v>
       </c>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>20</v>
       </c>
@@ -13329,7 +13697,7 @@
         <v>I-25</v>
       </c>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>20</v>
       </c>
@@ -13362,7 +13730,7 @@
         <v>I-25</v>
       </c>
     </row>
-    <row r="337" spans="1:9">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>20</v>
       </c>
@@ -13395,7 +13763,7 @@
         <v>I-26</v>
       </c>
     </row>
-    <row r="338" spans="1:9">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>20</v>
       </c>
@@ -13428,7 +13796,7 @@
         <v>I-26</v>
       </c>
     </row>
-    <row r="339" spans="1:9">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>20</v>
       </c>
@@ -13461,7 +13829,7 @@
         <v>I-26</v>
       </c>
     </row>
-    <row r="340" spans="1:9">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>20</v>
       </c>
@@ -13494,7 +13862,7 @@
         <v>I-26</v>
       </c>
     </row>
-    <row r="341" spans="1:9">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>20</v>
       </c>
@@ -13527,7 +13895,7 @@
         <v>I-26</v>
       </c>
     </row>
-    <row r="342" spans="1:9">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>20</v>
       </c>
@@ -13560,7 +13928,7 @@
         <v>I-27</v>
       </c>
     </row>
-    <row r="343" spans="1:9">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>20</v>
       </c>
@@ -13593,7 +13961,7 @@
         <v>I-27</v>
       </c>
     </row>
-    <row r="344" spans="1:9">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>20</v>
       </c>
@@ -13626,7 +13994,7 @@
         <v>I-27</v>
       </c>
     </row>
-    <row r="345" spans="1:9">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>20</v>
       </c>
@@ -13659,7 +14027,7 @@
         <v>I-27</v>
       </c>
     </row>
-    <row r="346" spans="1:9">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>20</v>
       </c>
@@ -13692,7 +14060,7 @@
         <v>I-27</v>
       </c>
     </row>
-    <row r="347" spans="1:9">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>20</v>
       </c>
@@ -13725,7 +14093,7 @@
         <v>I-28</v>
       </c>
     </row>
-    <row r="348" spans="1:9">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>20</v>
       </c>
@@ -13758,7 +14126,7 @@
         <v>I-28</v>
       </c>
     </row>
-    <row r="349" spans="1:9">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>20</v>
       </c>
@@ -13791,7 +14159,7 @@
         <v>I-28</v>
       </c>
     </row>
-    <row r="350" spans="1:9">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>20</v>
       </c>
@@ -13824,7 +14192,7 @@
         <v>I-28</v>
       </c>
     </row>
-    <row r="351" spans="1:9">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>20</v>
       </c>
@@ -13857,7 +14225,7 @@
         <v>I-28</v>
       </c>
     </row>
-    <row r="352" spans="1:9">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>20</v>
       </c>
@@ -13890,7 +14258,7 @@
         <v>I-29</v>
       </c>
     </row>
-    <row r="353" spans="1:9">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>20</v>
       </c>
@@ -13923,7 +14291,7 @@
         <v>I-29</v>
       </c>
     </row>
-    <row r="354" spans="1:9">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>20</v>
       </c>
@@ -13956,7 +14324,7 @@
         <v>I-29</v>
       </c>
     </row>
-    <row r="355" spans="1:9">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>20</v>
       </c>
@@ -13989,7 +14357,7 @@
         <v>I-29</v>
       </c>
     </row>
-    <row r="356" spans="1:9">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>20</v>
       </c>
@@ -14022,7 +14390,7 @@
         <v>I-29</v>
       </c>
     </row>
-    <row r="357" spans="1:9">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>20</v>
       </c>
@@ -14055,7 +14423,7 @@
         <v>I-30</v>
       </c>
     </row>
-    <row r="358" spans="1:9">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>20</v>
       </c>
@@ -14088,7 +14456,7 @@
         <v>I-30</v>
       </c>
     </row>
-    <row r="359" spans="1:9">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>20</v>
       </c>
@@ -14121,7 +14489,7 @@
         <v>I-30</v>
       </c>
     </row>
-    <row r="360" spans="1:9">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>20</v>
       </c>
@@ -14154,7 +14522,7 @@
         <v>I-30</v>
       </c>
     </row>
-    <row r="361" spans="1:9">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>20</v>
       </c>
@@ -14187,7 +14555,7 @@
         <v>I-30</v>
       </c>
     </row>
-    <row r="362" spans="1:9">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>20</v>
       </c>
@@ -14220,7 +14588,7 @@
         <v>I-31</v>
       </c>
     </row>
-    <row r="363" spans="1:9">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>20</v>
       </c>
@@ -14253,7 +14621,7 @@
         <v>I-31</v>
       </c>
     </row>
-    <row r="364" spans="1:9">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>20</v>
       </c>
@@ -14286,7 +14654,7 @@
         <v>I-31</v>
       </c>
     </row>
-    <row r="365" spans="1:9">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>20</v>
       </c>
@@ -14319,7 +14687,7 @@
         <v>I-31</v>
       </c>
     </row>
-    <row r="366" spans="1:9">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>20</v>
       </c>
@@ -14352,7 +14720,7 @@
         <v>I-31</v>
       </c>
     </row>
-    <row r="367" spans="1:9">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>20</v>
       </c>
@@ -14385,7 +14753,7 @@
         <v>I-32</v>
       </c>
     </row>
-    <row r="368" spans="1:9">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>20</v>
       </c>
@@ -14418,7 +14786,7 @@
         <v>I-32</v>
       </c>
     </row>
-    <row r="369" spans="1:9">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>20</v>
       </c>
@@ -14451,7 +14819,7 @@
         <v>I-32</v>
       </c>
     </row>
-    <row r="370" spans="1:9">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>20</v>
       </c>
@@ -14484,7 +14852,7 @@
         <v>I-32</v>
       </c>
     </row>
-    <row r="371" spans="1:9">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>20</v>
       </c>
@@ -14517,7 +14885,7 @@
         <v>I-32</v>
       </c>
     </row>
-    <row r="372" spans="1:9">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>20</v>
       </c>
@@ -14550,7 +14918,7 @@
         <v>I-33</v>
       </c>
     </row>
-    <row r="373" spans="1:9">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>20</v>
       </c>
@@ -14583,7 +14951,7 @@
         <v>I-33</v>
       </c>
     </row>
-    <row r="374" spans="1:9">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>20</v>
       </c>
@@ -14616,7 +14984,7 @@
         <v>I-33</v>
       </c>
     </row>
-    <row r="375" spans="1:9">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>20</v>
       </c>
@@ -14649,7 +15017,7 @@
         <v>I-33</v>
       </c>
     </row>
-    <row r="376" spans="1:9">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>20</v>
       </c>
@@ -14682,7 +15050,7 @@
         <v>I-33</v>
       </c>
     </row>
-    <row r="377" spans="1:9">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>20</v>
       </c>
@@ -14715,7 +15083,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="378" spans="1:9">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>20</v>
       </c>
@@ -14748,7 +15116,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="379" spans="1:9">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>20</v>
       </c>
@@ -14778,7 +15146,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="380" spans="1:9">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>20</v>
       </c>
@@ -14808,7 +15176,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="381" spans="1:9">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>20</v>
       </c>
@@ -14838,7 +15206,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="382" spans="1:9">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>20</v>
       </c>
@@ -14871,7 +15239,7 @@
         <v>I-34</v>
       </c>
     </row>
-    <row r="383" spans="1:9">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>20</v>
       </c>
@@ -14904,7 +15272,7 @@
         <v>I-34</v>
       </c>
     </row>
-    <row r="384" spans="1:9">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>20</v>
       </c>
@@ -14937,7 +15305,7 @@
         <v>I-34</v>
       </c>
     </row>
-    <row r="385" spans="1:9">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>20</v>
       </c>
@@ -14970,7 +15338,7 @@
         <v>I-34</v>
       </c>
     </row>
-    <row r="386" spans="1:9">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>20</v>
       </c>
@@ -15003,7 +15371,7 @@
         <v>I-34</v>
       </c>
     </row>
-    <row r="387" spans="1:9">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>20</v>
       </c>
@@ -15036,7 +15404,7 @@
         <v>I-35</v>
       </c>
     </row>
-    <row r="388" spans="1:9">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>20</v>
       </c>
@@ -15069,7 +15437,7 @@
         <v>I-35</v>
       </c>
     </row>
-    <row r="389" spans="1:9">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>20</v>
       </c>
@@ -15102,7 +15470,7 @@
         <v>I-35</v>
       </c>
     </row>
-    <row r="390" spans="1:9">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>20</v>
       </c>
@@ -15135,7 +15503,7 @@
         <v>I-35</v>
       </c>
     </row>
-    <row r="391" spans="1:9">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>20</v>
       </c>
@@ -15168,7 +15536,7 @@
         <v>I-35</v>
       </c>
     </row>
-    <row r="392" spans="1:9">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>20</v>
       </c>
@@ -15201,7 +15569,7 @@
         <v>I-36</v>
       </c>
     </row>
-    <row r="393" spans="1:9">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>20</v>
       </c>
@@ -15234,7 +15602,7 @@
         <v>I-36</v>
       </c>
     </row>
-    <row r="394" spans="1:9">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>20</v>
       </c>
@@ -15267,7 +15635,7 @@
         <v>I-36</v>
       </c>
     </row>
-    <row r="395" spans="1:9">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>20</v>
       </c>
@@ -15300,7 +15668,7 @@
         <v>I-36</v>
       </c>
     </row>
-    <row r="396" spans="1:9">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>20</v>
       </c>
@@ -15333,7 +15701,7 @@
         <v>I-36</v>
       </c>
     </row>
-    <row r="397" spans="1:9">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>20</v>
       </c>
@@ -15366,7 +15734,7 @@
         <v>I-37</v>
       </c>
     </row>
-    <row r="398" spans="1:9">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>20</v>
       </c>
@@ -15399,7 +15767,7 @@
         <v>I-37</v>
       </c>
     </row>
-    <row r="399" spans="1:9">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>20</v>
       </c>
@@ -15432,7 +15800,7 @@
         <v>I-37</v>
       </c>
     </row>
-    <row r="400" spans="1:9">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>20</v>
       </c>
@@ -15465,7 +15833,7 @@
         <v>I-37</v>
       </c>
     </row>
-    <row r="401" spans="1:9">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>20</v>
       </c>
@@ -15498,7 +15866,7 @@
         <v>I-37</v>
       </c>
     </row>
-    <row r="402" spans="1:9">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>7</v>
       </c>
@@ -15531,7 +15899,7 @@
         <v>I-1</v>
       </c>
     </row>
-    <row r="403" spans="1:9">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>7</v>
       </c>
@@ -15564,7 +15932,7 @@
         <v>I-1</v>
       </c>
     </row>
-    <row r="404" spans="1:9">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>7</v>
       </c>
@@ -15597,7 +15965,7 @@
         <v>I-1</v>
       </c>
     </row>
-    <row r="405" spans="1:9">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>7</v>
       </c>
@@ -15630,7 +15998,7 @@
         <v>I-1</v>
       </c>
     </row>
-    <row r="406" spans="1:9">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>7</v>
       </c>
@@ -15663,7 +16031,7 @@
         <v>I-1</v>
       </c>
     </row>
-    <row r="407" spans="1:9">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>7</v>
       </c>
@@ -15696,7 +16064,7 @@
         <v>I-2</v>
       </c>
     </row>
-    <row r="408" spans="1:9">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>7</v>
       </c>
@@ -15729,7 +16097,7 @@
         <v>I-2</v>
       </c>
     </row>
-    <row r="409" spans="1:9">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>7</v>
       </c>
@@ -15762,7 +16130,7 @@
         <v>I-2</v>
       </c>
     </row>
-    <row r="410" spans="1:9">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>7</v>
       </c>
@@ -15795,7 +16163,7 @@
         <v>I-2</v>
       </c>
     </row>
-    <row r="411" spans="1:9">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>7</v>
       </c>
@@ -15828,7 +16196,7 @@
         <v>I-2</v>
       </c>
     </row>
-    <row r="412" spans="1:9">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>7</v>
       </c>
@@ -15861,7 +16229,7 @@
         <v>I-3</v>
       </c>
     </row>
-    <row r="413" spans="1:9">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>7</v>
       </c>
@@ -15894,7 +16262,7 @@
         <v>I-3</v>
       </c>
     </row>
-    <row r="414" spans="1:9">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>7</v>
       </c>
@@ -15927,7 +16295,7 @@
         <v>I-3</v>
       </c>
     </row>
-    <row r="415" spans="1:9">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>7</v>
       </c>
@@ -15960,7 +16328,7 @@
         <v>I-3</v>
       </c>
     </row>
-    <row r="416" spans="1:9">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>7</v>
       </c>
@@ -15993,7 +16361,7 @@
         <v>I-3</v>
       </c>
     </row>
-    <row r="417" spans="1:9">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>7</v>
       </c>
@@ -16026,7 +16394,7 @@
         <v>I-4</v>
       </c>
     </row>
-    <row r="418" spans="1:9">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>7</v>
       </c>
@@ -16059,7 +16427,7 @@
         <v>I-4</v>
       </c>
     </row>
-    <row r="419" spans="1:9">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>7</v>
       </c>
@@ -16092,7 +16460,7 @@
         <v>I-4</v>
       </c>
     </row>
-    <row r="420" spans="1:9">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>7</v>
       </c>
@@ -16125,7 +16493,7 @@
         <v>I-4</v>
       </c>
     </row>
-    <row r="421" spans="1:9">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>7</v>
       </c>
@@ -16158,7 +16526,7 @@
         <v>I-4</v>
       </c>
     </row>
-    <row r="422" spans="1:9">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>7</v>
       </c>
@@ -16191,7 +16559,7 @@
         <v>I-5</v>
       </c>
     </row>
-    <row r="423" spans="1:9">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>7</v>
       </c>
@@ -16224,7 +16592,7 @@
         <v>I-5</v>
       </c>
     </row>
-    <row r="424" spans="1:9">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>7</v>
       </c>
@@ -16257,7 +16625,7 @@
         <v>I-5</v>
       </c>
     </row>
-    <row r="425" spans="1:9">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>7</v>
       </c>
@@ -16290,7 +16658,7 @@
         <v>I-5</v>
       </c>
     </row>
-    <row r="426" spans="1:9">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>7</v>
       </c>
@@ -16323,7 +16691,7 @@
         <v>I-5</v>
       </c>
     </row>
-    <row r="427" spans="1:9">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>7</v>
       </c>
@@ -16356,7 +16724,7 @@
         <v>I-11</v>
       </c>
     </row>
-    <row r="428" spans="1:9">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>7</v>
       </c>
@@ -16389,7 +16757,7 @@
         <v>I-11</v>
       </c>
     </row>
-    <row r="429" spans="1:9">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>7</v>
       </c>
@@ -16422,7 +16790,7 @@
         <v>I-11</v>
       </c>
     </row>
-    <row r="430" spans="1:9">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>7</v>
       </c>
@@ -16455,7 +16823,7 @@
         <v>I-11</v>
       </c>
     </row>
-    <row r="431" spans="1:9">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>7</v>
       </c>
@@ -16488,7 +16856,7 @@
         <v>I-11</v>
       </c>
     </row>
-    <row r="432" spans="1:9">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>7</v>
       </c>
@@ -16521,7 +16889,7 @@
         <v>I-12</v>
       </c>
     </row>
-    <row r="433" spans="1:9">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>7</v>
       </c>
@@ -16554,7 +16922,7 @@
         <v>I-12</v>
       </c>
     </row>
-    <row r="434" spans="1:9">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>7</v>
       </c>
@@ -16587,7 +16955,7 @@
         <v>I-12</v>
       </c>
     </row>
-    <row r="435" spans="1:9">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>7</v>
       </c>
@@ -16620,7 +16988,7 @@
         <v>I-12</v>
       </c>
     </row>
-    <row r="436" spans="1:9">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>7</v>
       </c>
@@ -16653,7 +17021,7 @@
         <v>I-12</v>
       </c>
     </row>
-    <row r="437" spans="1:9">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>7</v>
       </c>
@@ -16686,7 +17054,7 @@
         <v>I-13</v>
       </c>
     </row>
-    <row r="438" spans="1:9">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>7</v>
       </c>
@@ -16719,7 +17087,7 @@
         <v>I-13</v>
       </c>
     </row>
-    <row r="439" spans="1:9">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>7</v>
       </c>
@@ -16752,7 +17120,7 @@
         <v>I-13</v>
       </c>
     </row>
-    <row r="440" spans="1:9">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>7</v>
       </c>
@@ -16785,7 +17153,7 @@
         <v>I-13</v>
       </c>
     </row>
-    <row r="441" spans="1:9">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>7</v>
       </c>
@@ -16818,7 +17186,7 @@
         <v>I-13</v>
       </c>
     </row>
-    <row r="442" spans="1:9">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>7</v>
       </c>
@@ -16851,7 +17219,7 @@
         <v>I-14</v>
       </c>
     </row>
-    <row r="443" spans="1:9">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>7</v>
       </c>
@@ -16884,7 +17252,7 @@
         <v>I-14</v>
       </c>
     </row>
-    <row r="444" spans="1:9">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>7</v>
       </c>
@@ -16917,7 +17285,7 @@
         <v>I-14</v>
       </c>
     </row>
-    <row r="445" spans="1:9">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>7</v>
       </c>
@@ -16950,7 +17318,7 @@
         <v>I-14</v>
       </c>
     </row>
-    <row r="446" spans="1:9">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>7</v>
       </c>
@@ -16983,7 +17351,7 @@
         <v>I-14</v>
       </c>
     </row>
-    <row r="447" spans="1:9">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>7</v>
       </c>
@@ -17016,7 +17384,7 @@
         <v>I-15</v>
       </c>
     </row>
-    <row r="448" spans="1:9">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>7</v>
       </c>
@@ -17049,7 +17417,7 @@
         <v>I-15</v>
       </c>
     </row>
-    <row r="449" spans="1:9">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>7</v>
       </c>
@@ -17082,7 +17450,7 @@
         <v>I-15</v>
       </c>
     </row>
-    <row r="450" spans="1:9">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>7</v>
       </c>
@@ -17115,7 +17483,7 @@
         <v>I-15</v>
       </c>
     </row>
-    <row r="451" spans="1:9">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>7</v>
       </c>
@@ -17148,7 +17516,7 @@
         <v>I-15</v>
       </c>
     </row>
-    <row r="452" spans="1:9">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>7</v>
       </c>
@@ -17181,7 +17549,7 @@
         <v>I-16</v>
       </c>
     </row>
-    <row r="453" spans="1:9">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>7</v>
       </c>
@@ -17214,7 +17582,7 @@
         <v>I-16</v>
       </c>
     </row>
-    <row r="454" spans="1:9">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>7</v>
       </c>
@@ -17247,7 +17615,7 @@
         <v>I-16</v>
       </c>
     </row>
-    <row r="455" spans="1:9">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>7</v>
       </c>
@@ -17280,7 +17648,7 @@
         <v>I-16</v>
       </c>
     </row>
-    <row r="456" spans="1:9">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>7</v>
       </c>
@@ -17313,7 +17681,7 @@
         <v>I-16</v>
       </c>
     </row>
-    <row r="457" spans="1:9">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>7</v>
       </c>
@@ -17346,7 +17714,7 @@
         <v>I-17</v>
       </c>
     </row>
-    <row r="458" spans="1:9">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>7</v>
       </c>
@@ -17379,7 +17747,7 @@
         <v>I-17</v>
       </c>
     </row>
-    <row r="459" spans="1:9">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>7</v>
       </c>
@@ -17412,7 +17780,7 @@
         <v>I-17</v>
       </c>
     </row>
-    <row r="460" spans="1:9">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>7</v>
       </c>
@@ -17445,7 +17813,7 @@
         <v>I-17</v>
       </c>
     </row>
-    <row r="461" spans="1:9">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>7</v>
       </c>
@@ -17478,7 +17846,7 @@
         <v>I-17</v>
       </c>
     </row>
-    <row r="462" spans="1:9">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>7</v>
       </c>
@@ -17511,7 +17879,7 @@
         <v>I-18</v>
       </c>
     </row>
-    <row r="463" spans="1:9">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>7</v>
       </c>
@@ -17544,7 +17912,7 @@
         <v>I-18</v>
       </c>
     </row>
-    <row r="464" spans="1:9">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>7</v>
       </c>
@@ -17577,7 +17945,7 @@
         <v>I-18</v>
       </c>
     </row>
-    <row r="465" spans="1:9">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>7</v>
       </c>
@@ -17610,7 +17978,7 @@
         <v>I-18</v>
       </c>
     </row>
-    <row r="466" spans="1:9">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>7</v>
       </c>
@@ -17643,7 +18011,7 @@
         <v>I-18</v>
       </c>
     </row>
-    <row r="467" spans="1:9">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>7</v>
       </c>
@@ -17676,7 +18044,7 @@
         <v>I-19</v>
       </c>
     </row>
-    <row r="468" spans="1:9">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>7</v>
       </c>
@@ -17709,7 +18077,7 @@
         <v>I-19</v>
       </c>
     </row>
-    <row r="469" spans="1:9">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>7</v>
       </c>
@@ -17742,7 +18110,7 @@
         <v>I-19</v>
       </c>
     </row>
-    <row r="470" spans="1:9">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>7</v>
       </c>
@@ -17775,7 +18143,7 @@
         <v>I-19</v>
       </c>
     </row>
-    <row r="471" spans="1:9">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>7</v>
       </c>
@@ -17808,7 +18176,7 @@
         <v>I-19</v>
       </c>
     </row>
-    <row r="472" spans="1:9">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>7</v>
       </c>
@@ -17834,7 +18202,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="473" spans="1:9">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>7</v>
       </c>
@@ -17863,7 +18231,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="474" spans="1:9">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>7</v>
       </c>
@@ -17892,7 +18260,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="475" spans="1:9">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>7</v>
       </c>
@@ -17921,7 +18289,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="476" spans="1:9">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>7</v>
       </c>
@@ -17950,7 +18318,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="477" spans="1:9">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>7</v>
       </c>
@@ -17982,7 +18350,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="478" spans="1:9">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>7</v>
       </c>
@@ -18011,7 +18379,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="479" spans="1:9">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>7</v>
       </c>
@@ -18040,7 +18408,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="480" spans="1:9">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>7</v>
       </c>
@@ -18069,7 +18437,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="481" spans="1:9">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>7</v>
       </c>
@@ -18098,7 +18466,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="482" spans="1:9">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>7</v>
       </c>
@@ -18130,7 +18498,7 @@
         <v>I-20</v>
       </c>
     </row>
-    <row r="483" spans="1:9">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>7</v>
       </c>
@@ -18162,7 +18530,7 @@
         <v>I-20</v>
       </c>
     </row>
-    <row r="484" spans="1:9">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>7</v>
       </c>
@@ -18194,7 +18562,7 @@
         <v>I-20</v>
       </c>
     </row>
-    <row r="485" spans="1:9">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>7</v>
       </c>
@@ -18226,7 +18594,7 @@
         <v>I-20</v>
       </c>
     </row>
-    <row r="486" spans="1:9">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>7</v>
       </c>
@@ -18258,7 +18626,7 @@
         <v>I-20</v>
       </c>
     </row>
-    <row r="487" spans="1:9">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>7</v>
       </c>
@@ -18290,7 +18658,7 @@
         <v>I-21</v>
       </c>
     </row>
-    <row r="488" spans="1:9">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>7</v>
       </c>
@@ -18322,7 +18690,7 @@
         <v>I-21</v>
       </c>
     </row>
-    <row r="489" spans="1:9">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>7</v>
       </c>
@@ -18354,7 +18722,7 @@
         <v>I-21</v>
       </c>
     </row>
-    <row r="490" spans="1:9">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>7</v>
       </c>
@@ -18386,7 +18754,7 @@
         <v>I-21</v>
       </c>
     </row>
-    <row r="491" spans="1:9">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>7</v>
       </c>
@@ -18418,7 +18786,7 @@
         <v>I-21</v>
       </c>
     </row>
-    <row r="492" spans="1:9">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>7</v>
       </c>
@@ -18450,7 +18818,7 @@
         <v>I-22</v>
       </c>
     </row>
-    <row r="493" spans="1:9">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>7</v>
       </c>
@@ -18482,7 +18850,7 @@
         <v>I-22</v>
       </c>
     </row>
-    <row r="494" spans="1:9">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>7</v>
       </c>
@@ -18514,7 +18882,7 @@
         <v>I-22</v>
       </c>
     </row>
-    <row r="495" spans="1:9">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>7</v>
       </c>
@@ -18546,7 +18914,7 @@
         <v>I-22</v>
       </c>
     </row>
-    <row r="496" spans="1:9">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>7</v>
       </c>
@@ -18578,7 +18946,7 @@
         <v>I-22</v>
       </c>
     </row>
-    <row r="497" spans="1:9">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>7</v>
       </c>
@@ -18610,7 +18978,7 @@
         <v>I-23</v>
       </c>
     </row>
-    <row r="498" spans="1:9">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>7</v>
       </c>
@@ -18642,7 +19010,7 @@
         <v>I-23</v>
       </c>
     </row>
-    <row r="499" spans="1:9">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>7</v>
       </c>
@@ -18674,7 +19042,7 @@
         <v>I-23</v>
       </c>
     </row>
-    <row r="500" spans="1:9">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>7</v>
       </c>
@@ -18706,7 +19074,7 @@
         <v>I-23</v>
       </c>
     </row>
-    <row r="501" spans="1:9">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>7</v>
       </c>
